--- a/galleryapp/gallery-common/gallery-common-config.xlsx
+++ b/galleryapp/gallery-common/gallery-common-config.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
@@ -130,20 +130,17 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>example-common</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>cherry.example.common.Config</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>commonConfig</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>exampleapp/example-common</t>
-    <phoneticPr fontId="1"/>
+    <t>cherry.gallery.common.Config</t>
+  </si>
+  <si>
+    <t>gallery-common</t>
+  </si>
+  <si>
+    <t>galleryapp/gallery-common</t>
   </si>
 </sst>
 </file>
@@ -653,7 +650,7 @@
       <pane xSplit="1" ySplit="7" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0"/>
@@ -685,7 +682,7 @@
         <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:8" outlineLevel="1">
@@ -696,7 +693,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:8" outlineLevel="1">
